--- a/medicine/Pharmacie/Revue_d'histoire_de_la_pharmacie/Revue_d'histoire_de_la_pharmacie.xlsx
+++ b/medicine/Pharmacie/Revue_d'histoire_de_la_pharmacie/Revue_d'histoire_de_la_pharmacie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Revue_d%27histoire_de_la_pharmacie</t>
+          <t>Revue_d'histoire_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Revue d'histoire de la pharmacie, fondée en 1913, est une revue française d'histoire des sciences et techniques.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Revue_d%27histoire_de_la_pharmacie</t>
+          <t>Revue_d'histoire_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La revue est éditée par la Société d'histoire de la pharmacie, également fondée en 1913[2], il s'agit de la plus ancienne revue mondiale consacrée à la pharmacie et son histoire. De sa création à 1930[3], elle a porté le nom de Bulletin de la Société d'histoire de la pharmacie[4].
-Son fondateur est Eugène-Humbert Guitard (1884-1976). Depuis 1996, son directeur est Thierry Lefebvre[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La revue est éditée par la Société d'histoire de la pharmacie, également fondée en 1913, il s'agit de la plus ancienne revue mondiale consacrée à la pharmacie et son histoire. De sa création à 1930, elle a porté le nom de Bulletin de la Société d'histoire de la pharmacie.
+Son fondateur est Eugène-Humbert Guitard (1884-1976). Depuis 1996, son directeur est Thierry Lefebvre.
 </t>
         </is>
       </c>
